--- a/設計書/1班_機能設計書.xlsx
+++ b/設計書/1班_機能設計書.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent-my.sharepoint.com/personal/2101155_s_asojuku_ac_jp/Documents/デスクトップ/システム開発１班/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{9504FB42-ECE7-4C46-A56C-CC044429CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C5DBBE9-2579-4B38-804C-168878B9BEBA}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{9504FB42-ECE7-4C46-A56C-CC044429CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{890561FE-D3AB-4AB7-9591-98205A1A26D0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7A665DD0-1DF4-4483-AE5E-BE5AE45AA4F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{7A665DD0-1DF4-4483-AE5E-BE5AE45AA4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="機能一覧" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="137">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -245,6 +245,151 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り機能削除</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒岩</t>
+    <rPh sb="0" eb="2">
+      <t>クロイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メーカー検索機能削除</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能ファイルの統合</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの中での個数変更機能削除</t>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>コスウヘンコウキノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1.5</t>
+  </si>
+  <si>
+    <t>お気に入り、分類、メーカー、分類データベース接続、検索機能削除</t>
+  </si>
+  <si>
+    <t>高原</t>
+  </si>
+  <si>
+    <t>v1.6</t>
+  </si>
+  <si>
+    <t>ログイン、セッション、ユーザー検索、ユーザー情報クラス統合</t>
+  </si>
+  <si>
+    <t>v1.7</t>
+  </si>
+  <si>
+    <t>toppage.phpをToppage_out.htmlにし、内容変更</t>
+  </si>
+  <si>
+    <t>v1.8</t>
+  </si>
+  <si>
+    <t>mypage.phpをMypage_out.htmlにし、内容変更</t>
+  </si>
+  <si>
+    <t>v1.9</t>
+  </si>
+  <si>
+    <t>shohin.phpをTBL_shohin.phpに変更</t>
+  </si>
+  <si>
+    <t>v1.10</t>
+  </si>
+  <si>
+    <t>tyumon.htmlをcart.htmlにさらにtyumon.phpを統合</t>
+  </si>
+  <si>
+    <t>v1.11</t>
+  </si>
+  <si>
+    <t>商品詳細検索削除</t>
+  </si>
+  <si>
+    <t>v1.12</t>
+  </si>
+  <si>
+    <t>DB接続をすべてDBconnect.phpに統合</t>
+  </si>
+  <si>
+    <t>v1.13</t>
+  </si>
+  <si>
+    <t>DB接続（商品）をmypage.html、Mypage_out.html、
+toppage.html、Toppage.htmlに追加</t>
+  </si>
+  <si>
+    <t>v1.14</t>
+  </si>
+  <si>
+    <t>shohin.phpを追加</t>
+  </si>
+  <si>
+    <t>v1.15</t>
+  </si>
+  <si>
+    <t>登録、削除をカート画面に追加</t>
+  </si>
+  <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="4">
       <t>キノ</t>
@@ -312,10 +457,6 @@
     <t>オンラインショッピングシステム　機能設計書</t>
   </si>
   <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新者</t>
     <rPh sb="0" eb="3">
       <t>コウシンシャ</t>
@@ -435,11 +576,7 @@
     <t>画面</t>
   </si>
   <si>
-    <t>トップ検索処理</t>
-    <rPh sb="3" eb="7">
-      <t>ケンサクショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>DB接続/商品検索処理</t>
   </si>
   <si>
     <t>ログイン</t>
@@ -471,21 +608,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ検索処理</t>
-    <rPh sb="5" eb="9">
-      <t>ケンサクショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品/注文/ログイン</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>商品/カート/トップ/マイページ検索</t>
   </si>
   <si>
     <t>マイページ検索処理を埋め込む</t>
@@ -508,6 +631,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>商品画面1</t>
+  </si>
+  <si>
     <t>商品画面</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンガメン</t>
@@ -515,88 +641,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品検索処理</t>
-    <rPh sb="0" eb="6">
-      <t>ショウヒンケンサクショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページ/ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品検索処理を埋め込む</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shohin.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文画面</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品注文処理</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページ/確定/ログイン</t>
-    <rPh sb="4" eb="6">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品注文処理を埋め込む</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンチュウモン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tyumon.html</t>
-    <phoneticPr fontId="1"/>
+    <t>-</t>
+  </si>
+  <si>
+    <t>マイページ/カート/トップ/マイページ検索</t>
+  </si>
+  <si>
+    <t>商品情報をカート画面に送る</t>
+  </si>
+  <si>
+    <t>shosai_COMPAS.html</t>
+  </si>
+  <si>
+    <t>商品画面2</t>
+  </si>
+  <si>
+    <t>shosai_MONO.html</t>
+  </si>
+  <si>
+    <t>商品画面3</t>
+  </si>
+  <si>
+    <t>shosai_batta.html</t>
+  </si>
+  <si>
+    <t>商品画面4</t>
+  </si>
+  <si>
+    <t>shosai_furitoga.html</t>
+  </si>
+  <si>
+    <t>商品画面5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shosai_yusei.html</t>
+  </si>
+  <si>
+    <t>カート画面</t>
+  </si>
+  <si>
+    <t>マイページ/トップ/確定</t>
+  </si>
+  <si>
+    <t>カートテーブル検索、追加、削除、確定を行う</t>
+  </si>
+  <si>
+    <t>cart.html</t>
   </si>
   <si>
     <t>ログイン画面</t>
@@ -606,17 +696,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン処理</t>
-  </si>
-  <si>
-    <t>引数指定</t>
-    <rPh sb="0" eb="3">
-      <t>ヒキスウシテイ</t>
-    </rPh>
+    <t>DB接続</t>
+  </si>
+  <si>
+    <t>マイページ</t>
+  </si>
+  <si>
+    <t>ログイン処理を埋め込む</t>
+  </si>
+  <si>
+    <t>login.php</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン処理を埋め込む</t>
   </si>
   <si>
     <t>ログインNGなら画面遷移しない</t>
@@ -661,514 +751,80 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>トップ検索画面</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>商品検索をし、処理をおこなう</t>
+  </si>
+  <si>
+    <t>Toppage_out.html</t>
+  </si>
+  <si>
+    <t>マイページ検索画面</t>
+  </si>
+  <si>
+    <t>Mypage_out.phphtml</t>
+  </si>
+  <si>
+    <t>商品検索処理</t>
+  </si>
+  <si>
     <t>処理</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品名画像検索/分類検索</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品名画像検索/分類検索をし、処理をおこなう</t>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>toppage.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品名画像検索/分類検索/メーカー検索/お気に入り検索</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品名画像検索/分類検索/メーカー検索/お気に入り検索をし、処理をおこなう</t>
-    <rPh sb="30" eb="32">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mypage.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品詳細検索</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品詳細検索をし、処理をおこなう</t>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>商品詳細検索、カート検索をし、処理をおこなう</t>
+  </si>
+  <si>
+    <t>TBL_shohin.php</t>
+  </si>
+  <si>
+    <t>セキュリティ管理</t>
+  </si>
+  <si>
+    <t>アクセス管理</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>ログインチェックし、ログイン処理をおこなう
+ログイン状態か否かを、セッションをチェックして確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セッション情報をチェックし、セッションになければユーザー情報を検索する
+取得したテーブルデータは、ユーザー情報クラスに設定する	
+セッションに登録する	</t>
+  </si>
+  <si>
+    <t>DB管理</t>
+  </si>
+  <si>
+    <t>DBアクセス</t>
+  </si>
+  <si>
+    <t>処理</t>
+  </si>
+  <si>
+    <t>商品クラス</t>
+  </si>
+  <si>
+    <t>DB接続確立</t>
+  </si>
+  <si>
+    <t>DBconnect.php</t>
+  </si>
+  <si>
+    <t>接続の結果を戻り値で返す</t>
+  </si>
+  <si>
+    <t>クラス定義</t>
   </si>
   <si>
     <t>shohin.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更/削除</t>
-    <rPh sb="0" eb="1">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更/削除をし、処理をおこなう</t>
-    <rPh sb="0" eb="1">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tyumon.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セキュリティ管理</t>
-  </si>
-  <si>
-    <t>アクセス管理</t>
-  </si>
-  <si>
-    <t>処理</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>セッション情報取得/ユーザー情報検索</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインチェックし、ログイン処理をおこなう</t>
-  </si>
-  <si>
-    <t>login.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッション情報をチェックし、セッションになければユーザー情報を検索する</t>
-  </si>
-  <si>
-    <t>DB管理</t>
-  </si>
-  <si>
-    <t>DBアクセス</t>
-  </si>
-  <si>
-    <t>DB接続(商品)</t>
-    <rPh sb="5" eb="7">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品DB接続確立</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S_dbconnect.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>接続の結果を戻り値で返す</t>
-  </si>
-  <si>
-    <t>DB接続(会員)</t>
-    <rPh sb="5" eb="7">
-      <t>カイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員DB接続確立</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_dbconnect.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB接続(注文)</t>
-    <rPh sb="5" eb="7">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文DB接続確立</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_dbconnect.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB接続(分類)</t>
-    <rPh sb="5" eb="7">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分類DB接続確立</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B_dbconnect.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB接続(お気に入り)</t>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入りDB接続確立</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O_dbconnect.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB接続(メーカー)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メーカーDB接続確立</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M_dbconnect.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品名画像検索</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品名と画像を取得し表示する</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sng_search.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新着順</t>
-    <rPh sb="0" eb="3">
-      <t>シンチャクジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品の詳細を取得し表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ss_search.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分類検索</t>
-    <rPh sb="0" eb="4">
-      <t>ブンルイケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品分類を検索し商品を表示する</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンブンルイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B_search.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品を登録する</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>order.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除する</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>delete.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッション情報取得</t>
-  </si>
-  <si>
-    <t>ログイン状態か否かを、セッションをチェックして確認する</t>
-  </si>
-  <si>
-    <t>sessionChk.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー情報検索</t>
-  </si>
-  <si>
-    <t>ユーザー情報クラス</t>
-  </si>
-  <si>
-    <t>ユーザー情報を取得してインスタンスに格納する</t>
-  </si>
-  <si>
-    <t>UserSelect.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得したテーブルデータは、ユーザー情報クラスに設定する</t>
-  </si>
-  <si>
-    <t>データ定義</t>
-  </si>
-  <si>
-    <t>データ</t>
-  </si>
-  <si>
-    <t>ユーザー情報を格納するクラス</t>
-  </si>
-  <si>
-    <t>UserInfo.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションに登録する</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入り機能削除</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>v1.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黒岩</t>
-    <rPh sb="0" eb="2">
-      <t>クロイワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メーカー検索機能削除</t>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>v.1.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン機能ファイルの統合</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カートの中での個数変更機能削除</t>
-    <rPh sb="4" eb="5">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="7" eb="13">
-      <t>コスウヘンコウキノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>v1.4</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1346,7 +1002,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1523,6 +1179,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1536,7 +1231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1640,15 +1335,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1661,6 +1350,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,6 +1362,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1679,78 +1443,52 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1759,71 +1497,61 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1848,7 +1576,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2136,7 +1864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2146,17 +1874,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3595A5-50CC-42FB-9624-A743950D1344}">
   <dimension ref="A1:FL61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:G44"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56:S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.09765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.09765625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" style="33" customWidth="1"/>
-    <col min="6" max="7" width="4.69921875" style="2" customWidth="1"/>
-    <col min="8" max="24" width="4.09765625" style="2" customWidth="1"/>
+    <col min="1" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="33" customWidth="1"/>
+    <col min="6" max="7" width="4.75" style="2" customWidth="1"/>
+    <col min="8" max="9" width="4.5" style="2" customWidth="1"/>
+    <col min="10" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.125" style="2" customWidth="1"/>
     <col min="25" max="28" width="4" style="2" customWidth="1"/>
     <col min="29" max="16384" width="13" style="2"/>
   </cols>
@@ -2374,16 +2105,16 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="61"/>
-      <c r="S3" s="83">
+      <c r="R3" s="57"/>
+      <c r="S3" s="77">
         <v>44869</v>
       </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="85"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="79"/>
       <c r="W3" s="12"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="8"/>
@@ -2478,14 +2209,14 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
@@ -2503,64 +2234,64 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="70" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="72"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="61"/>
-      <c r="S8" s="60" t="s">
+      <c r="R8" s="57"/>
+      <c r="S8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="61"/>
-      <c r="U8" s="60" t="s">
+      <c r="T8" s="57"/>
+      <c r="U8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="61"/>
+      <c r="V8" s="57"/>
       <c r="W8" s="12"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="75"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="22"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="8"/>
@@ -2582,12 +2313,12 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="79"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="22"/>
       <c r="X10" s="21"/>
       <c r="Y10" s="8"/>
@@ -2609,12 +2340,12 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="81"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="75"/>
       <c r="W11" s="22"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="23"/>
@@ -2699,81 +2430,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="24"/>
       <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
       <c r="W16" s="24"/>
       <c r="X16" s="13"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
       <c r="W17" s="24"/>
       <c r="X17" s="13"/>
     </row>
@@ -3327,541 +3058,629 @@
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1">
       <c r="A39" s="11"/>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="54" t="s">
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="54" t="s">
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="54" t="s">
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="55"/>
-      <c r="V39" s="56"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="55"/>
       <c r="W39" s="26"/>
       <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1">
       <c r="A40" s="11"/>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57">
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="80">
         <v>44869</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="54" t="s">
+      <c r="F40" s="81"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="U40" s="55"/>
-      <c r="V40" s="56"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="55"/>
       <c r="W40" s="26"/>
       <c r="X40" s="13"/>
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1">
       <c r="A41" s="11"/>
-      <c r="B41" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57">
+      <c r="B41" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="80">
         <v>44892</v>
       </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="U41" s="55"/>
-      <c r="V41" s="56"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U41" s="54"/>
+      <c r="V41" s="55"/>
       <c r="W41" s="26"/>
       <c r="X41" s="13"/>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1">
       <c r="A42" s="11"/>
-      <c r="B42" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57">
+      <c r="B42" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="80">
         <v>44900</v>
       </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="U42" s="55"/>
-      <c r="V42" s="56"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U42" s="54"/>
+      <c r="V42" s="55"/>
       <c r="W42" s="26"/>
       <c r="X42" s="13"/>
     </row>
     <row r="43" spans="1:24" ht="15" customHeight="1">
       <c r="A43" s="11"/>
-      <c r="B43" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57">
+      <c r="B43" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="80">
         <v>44902</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="U43" s="55"/>
-      <c r="V43" s="56"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U43" s="54"/>
+      <c r="V43" s="55"/>
       <c r="W43" s="26"/>
       <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:24" ht="15" customHeight="1">
       <c r="A44" s="11"/>
-      <c r="B44" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57">
+      <c r="B44" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="80">
         <v>44902</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="U44" s="55"/>
-      <c r="V44" s="56"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U44" s="54"/>
+      <c r="V44" s="55"/>
       <c r="W44" s="26"/>
       <c r="X44" s="13"/>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1">
       <c r="A45" s="11"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="56"/>
+      <c r="B45" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="80">
+        <v>44910</v>
+      </c>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U45" s="54"/>
+      <c r="V45" s="55"/>
       <c r="W45" s="26"/>
       <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:24" ht="15" customHeight="1">
       <c r="A46" s="11"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="56"/>
+      <c r="B46" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="80">
+        <v>44910</v>
+      </c>
+      <c r="F46" s="81"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U46" s="54"/>
+      <c r="V46" s="55"/>
       <c r="W46" s="26"/>
       <c r="X46" s="13"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1">
       <c r="A47" s="11"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="56"/>
+      <c r="B47" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="80">
+        <v>44910</v>
+      </c>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U47" s="54"/>
+      <c r="V47" s="55"/>
       <c r="W47" s="26"/>
       <c r="X47" s="13"/>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1">
       <c r="A48" s="11"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="56"/>
+      <c r="B48" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="80">
+        <v>44911</v>
+      </c>
+      <c r="F48" s="81"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U48" s="54"/>
+      <c r="V48" s="55"/>
       <c r="W48" s="26"/>
       <c r="X48" s="13"/>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1">
       <c r="A49" s="11"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="56"/>
+      <c r="B49" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="80">
+        <v>44911</v>
+      </c>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U49" s="54"/>
+      <c r="V49" s="55"/>
       <c r="W49" s="26"/>
       <c r="X49" s="13"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1">
       <c r="A50" s="11"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="56"/>
+      <c r="B50" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="80">
+        <v>44911</v>
+      </c>
+      <c r="F50" s="81"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U50" s="54"/>
+      <c r="V50" s="55"/>
       <c r="W50" s="26"/>
       <c r="X50" s="13"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1">
       <c r="A51" s="11"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="56"/>
+      <c r="B51" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="80">
+        <v>44911</v>
+      </c>
+      <c r="F51" s="81"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U51" s="54"/>
+      <c r="V51" s="55"/>
       <c r="W51" s="26"/>
       <c r="X51" s="13"/>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="11"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="56"/>
+      <c r="B52" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="80">
+        <v>44911</v>
+      </c>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U52" s="54"/>
+      <c r="V52" s="55"/>
       <c r="W52" s="26"/>
       <c r="X52" s="13"/>
     </row>
-    <row r="53" spans="1:24" ht="15" customHeight="1">
+    <row r="53" spans="1:24" ht="28.5" customHeight="1">
       <c r="A53" s="11"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="56"/>
+      <c r="B53" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="80">
+        <v>44911</v>
+      </c>
+      <c r="F53" s="81"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U53" s="54"/>
+      <c r="V53" s="55"/>
       <c r="W53" s="26"/>
       <c r="X53" s="13"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1">
       <c r="A54" s="11"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="56"/>
+      <c r="B54" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="80">
+        <v>44911</v>
+      </c>
+      <c r="F54" s="81"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U54" s="54"/>
+      <c r="V54" s="55"/>
       <c r="W54" s="26"/>
       <c r="X54" s="13"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1">
       <c r="A55" s="11"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="56"/>
+      <c r="B55" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="80">
+        <v>44911</v>
+      </c>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U55" s="54"/>
+      <c r="V55" s="55"/>
       <c r="W55" s="26"/>
       <c r="X55" s="13"/>
     </row>
     <row r="56" spans="1:24" ht="15" customHeight="1">
       <c r="A56" s="11"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="56"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="55"/>
       <c r="W56" s="26"/>
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1">
       <c r="A57" s="11"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="56"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="55"/>
       <c r="W57" s="26"/>
       <c r="X57" s="13"/>
     </row>
@@ -3971,6 +3790,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="T41:V41"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:S39"/>
@@ -3987,78 +3878,6 @@
     <mergeCell ref="U9:V11"/>
     <mergeCell ref="B15:V17"/>
     <mergeCell ref="S3:V3"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="T57:V57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4070,1175 +3889,852 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BF064-3389-41A0-8DD3-77961AA7640C}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="38" customWidth="1"/>
     <col min="3" max="3" width="40" style="38" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="38"/>
+    <col min="4" max="4" width="8.875" style="38"/>
     <col min="5" max="5" width="9.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.59765625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="31.09765625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="35.59765625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="31.125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="35.625" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" style="38" customWidth="1"/>
-    <col min="10" max="10" width="25.3984375" style="38" customWidth="1"/>
-    <col min="11" max="12" width="14.3984375" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="8.8984375" style="38"/>
+    <col min="10" max="10" width="25.375" style="38" customWidth="1"/>
+    <col min="11" max="12" width="14.375" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.8">
+    <row r="1" spans="1:12" ht="19.899999999999999">
       <c r="A1" s="36" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A2" s="99" t="s">
-        <v>18</v>
+      <c r="A2" s="118" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="51" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="52">
+        <v>54</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="94"/>
+      <c r="F3" s="50">
         <v>44869</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A4" s="101"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="39" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="53" t="s">
-        <v>27</v>
+      <c r="E4" s="94"/>
+      <c r="F4" s="51" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1">
-      <c r="D5" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="94"/>
+      <c r="F5" s="51" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1">
-      <c r="D6" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="96"/>
+      <c r="F6" s="50">
+        <v>44911</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1"/>
     <row r="8" spans="1:12" ht="20.25" customHeight="1"/>
     <row r="9" spans="1:12" ht="20.25" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="103"/>
-    </row>
-    <row r="10" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="K9" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="87"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5">
       <c r="A10" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="48">
+        <v>73</v>
+      </c>
+      <c r="E10" s="47">
         <v>1</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="K10" s="98"/>
       <c r="L10" s="98"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="22.5">
       <c r="A11" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="50">
+        <v>73</v>
+      </c>
+      <c r="E11" s="48">
         <v>2</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
-    </row>
-    <row r="12" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+    </row>
+    <row r="12" spans="1:12" ht="45">
       <c r="A12" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="50">
+        <v>73</v>
+      </c>
+      <c r="E12" s="48">
         <v>3</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-    </row>
-    <row r="13" spans="1:12" ht="23.25" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+    </row>
+    <row r="13" spans="1:12" ht="45">
       <c r="A13" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="50">
+        <v>73</v>
+      </c>
+      <c r="E13" s="48">
         <v>4</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="J13" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" ht="45">
       <c r="A14" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="49">
+        <v>73</v>
+      </c>
+      <c r="E14" s="48">
         <v>5</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>64</v>
+      <c r="F14" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="89"/>
+    </row>
+    <row r="15" spans="1:12" ht="45">
+      <c r="A15" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="B15" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="97"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="50">
+        <v>73</v>
+      </c>
+      <c r="E15" s="109">
         <v>6</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>69</v>
+        <v>84</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-    </row>
-    <row r="16" spans="1:12">
+        <v>87</v>
+      </c>
+      <c r="J15" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="108"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="1:12" ht="45">
       <c r="A16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="E16" s="113">
+        <v>7</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="108"/>
+      <c r="L16" s="89"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5">
+      <c r="A17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="42" t="s">
+      <c r="E17" s="103">
+        <v>8</v>
+      </c>
+      <c r="F17" s="102"/>
+      <c r="G17" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="50">
-        <v>7</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
-    </row>
-    <row r="17" spans="1:12" ht="36">
-      <c r="A17" s="34" t="s">
+      <c r="H17" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="111"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="E18" s="106">
+        <v>9</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="90"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5">
+      <c r="A19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="50">
-        <v>8</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="34" t="s">
+      <c r="E19" s="48">
+        <v>10</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5">
+      <c r="A20" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="46" t="s">
         <v>73</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="50">
-        <v>9</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
-    </row>
-    <row r="19" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="50">
-        <v>10</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-    </row>
-    <row r="20" spans="1:12" ht="54" customHeight="1">
-      <c r="A20" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>89</v>
       </c>
       <c r="E20" s="48">
         <v>11</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="97"/>
-    </row>
-    <row r="21" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>97</v>
+      <c r="F20" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5">
+      <c r="A21" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E21" s="48">
         <v>12</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>98</v>
+      <c r="F21" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="89"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>89</v>
+        <v>118</v>
+      </c>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+    </row>
+    <row r="22" spans="1:12" ht="45">
+      <c r="A22" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>120</v>
       </c>
       <c r="E22" s="48">
         <v>13</v>
       </c>
-      <c r="F22" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>102</v>
+      <c r="F22" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>121</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="88" t="s">
-        <v>100</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="K22" s="88"/>
       <c r="L22" s="89"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="108.75" customHeight="1">
       <c r="A23" s="44" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="48">
+        <v>73</v>
+      </c>
+      <c r="E23" s="47">
         <v>14</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I23" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="89"/>
+      <c r="K23" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="90"/>
     </row>
     <row r="24" spans="1:12" ht="23.25" customHeight="1">
       <c r="A24" s="44" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="48">
+        <v>130</v>
+      </c>
+      <c r="E24" s="47">
         <v>15</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="89"/>
+        <v>133</v>
+      </c>
+      <c r="K24" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" ht="23.25" customHeight="1">
       <c r="A25" s="44" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="48">
+        <v>130</v>
+      </c>
+      <c r="E25" s="47">
         <v>16</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" s="89"/>
-    </row>
-    <row r="26" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A26" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="48">
-        <v>17</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="L26" s="89"/>
-    </row>
-    <row r="27" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A27" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="50">
-        <v>18</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="K27" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" s="90"/>
-    </row>
-    <row r="28" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A28" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="50">
-        <v>19</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="L28" s="90"/>
-    </row>
-    <row r="29" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A29" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="50">
-        <v>21</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="K29" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="90"/>
+        <v>136</v>
+      </c>
+      <c r="K25" s="84"/>
+      <c r="L25" s="85"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="49">
-        <v>24</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="49">
-        <v>26</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="86"/>
-      <c r="L31" s="87"/>
-    </row>
-    <row r="32" spans="1:12" ht="36">
-      <c r="A32" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="48">
-        <v>27</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="86"/>
-      <c r="L32" s="87"/>
-    </row>
-    <row r="33" spans="1:12" ht="36" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="48">
-        <v>28</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="I33" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="L33" s="89"/>
-    </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1">
-      <c r="A34" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="48">
-        <v>29</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="89"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="87"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="87"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="87"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="87"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="87"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="87"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="87"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="87"/>
-    </row>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="100"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75"/>
+    <row r="35" spans="1:12" ht="18.75"/>
+    <row r="37" spans="1:12" ht="18.75"/>
+    <row r="38" spans="1:12" ht="18.75"/>
+    <row r="39" spans="1:12" ht="18.75"/>
+    <row r="40" spans="1:12" ht="18.75"/>
+    <row r="41" spans="1:12" ht="18.75"/>
+    <row r="42" spans="1:12" ht="18.75"/>
+    <row r="43" spans="1:12" ht="18.75"/>
+    <row r="44" spans="1:12" ht="18.75"/>
+    <row r="47" spans="1:12" ht="18.75"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="31">
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -5249,8 +4745,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F76FAC2C7AEEAE41BC1D25FD92EE24AB" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7695253f81e6c7318555ce012cade6fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df548125-28e1-4345-bf1a-aa125302215c" xmlns:ns3="47686824-05e8-4687-a466-57055bb26398" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b51b4146c61fd0c7a8e25a3c7f36bc8" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="47686824-05e8-4687-a466-57055bb26398" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="df548125-28e1-4345-bf1a-aa125302215c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F76FAC2C7AEEAE41BC1D25FD92EE24AB" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b0c92423bef5e4f96ea1be2225e4a2de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df548125-28e1-4345-bf1a-aa125302215c" xmlns:ns3="47686824-05e8-4687-a466-57055bb26398" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab9a2ce42562e925ae14ae99c6f0a060" ns2:_="" ns3:_="">
     <xsd:import namespace="df548125-28e1-4345-bf1a-aa125302215c"/>
     <xsd:import namespace="47686824-05e8-4687-a466-57055bb26398"/>
     <xsd:element name="properties">
@@ -5263,6 +4779,12 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5281,6 +4803,35 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7a3d4e50-da24-4b51-9333-67165e7dee8a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5312,6 +4863,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cd19e17c-e7ae-4bf2-94f2-4c52a90b5b56}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="47686824-05e8-4687-a466-57055bb26398">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5413,53 +4975,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADD1750-C881-458B-B4FB-C6EFA7FCDABA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="df548125-28e1-4345-bf1a-aa125302215c"/>
-    <ds:schemaRef ds:uri="47686824-05e8-4687-a466-57055bb26398"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5F99839-1DFD-40A1-90A2-B7FC61C519DB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39D0CED9-BB4D-4C29-B13C-ECF7223DF5AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39D0CED9-BB4D-4C29-B13C-ECF7223DF5AC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5F99839-1DFD-40A1-90A2-B7FC61C519DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6760421-FC84-46D0-BF0D-203936E4C40B}"/>
 </file>